--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097489.02784809</v>
+        <v>3093156.543027399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8651915.183745114</v>
+        <v>8651915.183745112</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>133.9979477741403</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>224.9913792784364</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>41.21288285744037</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>96.3616331761031</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>350.8346378726573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>1.925119512544002</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.4685441446657</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>125.8721928563316</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.5285626279051</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>71.22475183604979</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>13.37642554686373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569545</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>153.589961858651</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.3722917337074</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>100.4057322893121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>35.23631477519741</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.73194049497363</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>44.7513807668926</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.241224882541</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>934.4529722842963</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8649647332663</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1822.041796525165</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362311</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362311</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>582.6562847294806</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362311</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.4909684781775</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>318.4909684781775</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>318.4909684781775</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>170.5778748957844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>170.5778748957844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084172</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084172</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5606,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5837,16 +5837,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>2770.435951460738</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>2620.319312048402</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>2472.406218466009</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>2472.406218466009</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6074,19 +6074,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.866460342034</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407056</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2072.35525930079</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900021</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776664</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>443.4949469776664</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>296.604999479756</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>129.4089001946359</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>129.4089001946359</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.971224494428</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2238.116390149333</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.514925172274</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.30341755403222</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>273.1465727897273</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.15184655856149</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>151.7319110345159</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>46.02952154336811</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.64330621514806</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>101.6825818796766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
@@ -26322,40 +26322,40 @@
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>944372.7777577088</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26447,7 +26447,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>413961.9203935001</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203934998</v>
+        <v>413961.9203935001</v>
       </c>
       <c r="E6" t="n">
-        <v>-364488.290446781</v>
+        <v>-364835.6697011376</v>
       </c>
       <c r="F6" t="n">
-        <v>579884.4873109278</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="G6" t="n">
-        <v>579884.4873109282</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="H6" t="n">
-        <v>579884.4873109282</v>
+        <v>579537.108056571</v>
       </c>
       <c r="I6" t="n">
-        <v>579884.4873109283</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="J6" t="n">
-        <v>403461.2681183349</v>
+        <v>403113.8888639779</v>
       </c>
       <c r="K6" t="n">
-        <v>579884.4873109284</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="L6" t="n">
-        <v>579884.4873109282</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="M6" t="n">
-        <v>455675.9766028692</v>
+        <v>455328.5973485127</v>
       </c>
       <c r="N6" t="n">
-        <v>579884.4873109284</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="O6" t="n">
-        <v>579884.4873109279</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="P6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565715</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>990.2318361245872</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>272.8780979675712</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>99.10841501723573</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04372617964787651</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>208.8197898846882</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>324.0600089135672</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>273.3694675023659</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.6211234951019</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>31.09573219960447</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>52.55328306226772</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.84125811438521</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>86.27334609368727</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539308</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32557,19 +32557,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32794,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>213.3000196296242</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740566</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>433.4611020691866</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M45" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093156.543027399</v>
+        <v>3094917.073330184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>250.1325537001773</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.764863467406604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>41.21288285744037</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>41.2128828574409</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>110.0067194502385</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.925119512544002</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>99.44420492154106</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>23.05950344416413</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.22475183604979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>95.12712756824263</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>5.421623586788372</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>51.89407438975464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>34.69211367164815</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>1.839588425939787</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.041796525165</v>
+        <v>1822.041796525166</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1822.041796525166</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1463.776097918415</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1077.987845320171</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>667.0019405305636</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>249.0381324287505</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y5" t="n">
-        <v>1822.041796525165</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1800.761432218459</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1442.495733611708</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1056.707481013464</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>645.7215762238563</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.204525854037</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.204525854037</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4944,64 +4944,64 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>600.9853550586245</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>600.9853550586245</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
         <v>372.9958041606071</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>258.8209219271517</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>117.1090907693498</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="F22" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>99.29305050937427</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>99.29305050937427</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6308,16 +6308,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
         <v>2129.438138565707</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,10 +7019,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
         <v>716.6687843969308</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>58.2063328744014</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>147.3599015160446</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>50.29392045468862</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.84421273177716</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>146.5692538725977</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>165.5113759375336</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>64.53565828418191</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.609736506</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670396</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670381</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26444,10 +26444,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210446</v>
+        <v>-176005.9588210447</v>
       </c>
       <c r="C6" t="n">
-        <v>413961.9203935001</v>
+        <v>413961.9203935</v>
       </c>
       <c r="D6" t="n">
         <v>413961.9203935001</v>
       </c>
       <c r="E6" t="n">
-        <v>-364835.6697011376</v>
+        <v>-364523.0283722167</v>
       </c>
       <c r="F6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854929</v>
       </c>
       <c r="G6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854922</v>
       </c>
       <c r="H6" t="n">
-        <v>579537.108056571</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="I6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854929</v>
       </c>
       <c r="J6" t="n">
-        <v>403113.8888639779</v>
+        <v>403426.5301928992</v>
       </c>
       <c r="K6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="L6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="M6" t="n">
-        <v>455328.5973485127</v>
+        <v>455641.2386774337</v>
       </c>
       <c r="N6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="O6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="P6" t="n">
-        <v>579537.1080565715</v>
+        <v>579849.7493854925</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245872</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>131.7978163720845</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>99.10841501723573</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.8197898846882</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>324.0600089135672</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>282.7098899069163</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>303.7774505705564</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.55328306226772</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>86.27334609368727</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>126.2654504674961</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>303.4297552732299</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>468.9317632522997</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34210,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34468,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902408</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>160.8335108287855</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>330.3773834724255</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
